--- a/other/requirements_survey.xlsx
+++ b/other/requirements_survey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasolutions-my.sharepoint.com/personal/chetan_paliwal_tredence_com/Documents/Documents/Capstone - WeTelco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasolutions-my.sharepoint.com/personal/chetan_paliwal_tredence_com/Documents/Documents/Capstone-WeTelco/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10487F895D46145ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5ABBA2-70C5-4999-A73B-EDF241DF4616}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC10487F895D46145ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6912DE98-FF42-45B6-AE6F-E2D4011C5951}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>azure_solution</t>
   </si>
@@ -64,13 +64,73 @@
   </si>
   <si>
     <t>Use Zone-Redundant Storage (ZRS) for high availability and protection against zone-level failures within a region</t>
+  </si>
+  <si>
+    <t>sub_solutions</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>To collaborate and implement version control. Also for notebook integration in ETL pipeline.</t>
+  </si>
+  <si>
+    <t>Use folders and notebooks to logically structure the workspace. It also help us to maintain clean and organized environment</t>
+  </si>
+  <si>
+    <t>Compute</t>
+  </si>
+  <si>
+    <t>To provision the right amount of computational resources for the ETL tasks and ensure parallel processing.</t>
+  </si>
+  <si>
+    <t>Use different clusters for different types of needs. Use autoscaling if necessary.</t>
+  </si>
+  <si>
+    <t>Delta Live Table</t>
+  </si>
+  <si>
+    <t>To perform real-time data ingestion and also to unify batch and streaming data in a single pipeline.</t>
+  </si>
+  <si>
+    <t>Efficiently planning schema evolution as streaming data may change schema over time along with versioning and rollbacks.</t>
+  </si>
+  <si>
+    <t>Unity Catalog</t>
+  </si>
+  <si>
+    <t>To track data lineage, dependencies, and data transformations, which is crucial for auditing, compliance, and documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop a data governance model. Proper configuration </t>
+  </si>
+  <si>
+    <t>Git Versioning</t>
+  </si>
+  <si>
+    <t>To work  collaboratively  on same notebooks and projects. Also to keep detailed history of any changes , to use rollback in case of errors.</t>
+  </si>
+  <si>
+    <t>Comment every commit properly and ensure proper documentation.</t>
+  </si>
+  <si>
+    <t>SQL Warehouse</t>
+  </si>
+  <si>
+    <t>To do ad-hoc quering.</t>
+  </si>
+  <si>
+    <t>Select appropriate cluster size. Add the necessary time duration for warehouse to stop when left idle.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +138,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,12 +195,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,71 +605,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="105.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>